--- a/Data/aearep-453/candidatepackages.xlsx
+++ b/Data/aearep-453/candidatepackages.xlsx
@@ -130,7 +130,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -142,10 +142,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="C3">
-        <v>0.18733422458171844</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D3"/>
     </row>
@@ -154,10 +154,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C4">
-        <v>0.18766577541828156</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D4"/>
     </row>
@@ -166,10 +166,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C5">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D5"/>
     </row>
@@ -178,10 +178,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="C6">
-        <v>0.32659152150154114</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D6"/>
     </row>
@@ -190,10 +190,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="C7">
-        <v>0.47181698679924011</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D7"/>
     </row>
@@ -202,10 +202,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1835</v>
+        <v>2030</v>
       </c>
       <c r="C8">
-        <v>0.60842174291610718</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D8"/>
     </row>
